--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
   <si>
     <t>原文地址：https://testerhome.com/topics/2572</t>
   </si>
@@ -1248,13 +1248,25 @@
     <t>在Test标签加入参数，然后通过BeforeGroups标签进行分组</t>
   </si>
   <si>
+    <t>五、修改自动补全快捷键</t>
+  </si>
+  <si>
     <t>七、对类进行分组</t>
   </si>
   <si>
+    <t>File--Setting-KeyMap-Basic点击Add keyboard Shortcut</t>
+  </si>
+  <si>
     <t>@Test定义在类上 @Test(groups = "teacher")</t>
   </si>
   <si>
+    <t>六、安装插件，用于生成get、set等方法</t>
+  </si>
+  <si>
     <t>通过定义xml文件去控制，格式如下：</t>
+  </si>
+  <si>
+    <t>File--&gt;setting--&gt;Plugins--&gt;搜索lombok</t>
   </si>
   <si>
     <r>
@@ -1646,14 +1658,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1661,6 +1681,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1675,36 +1703,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1712,7 +1719,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1728,22 +1735,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1752,6 +1759,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1773,17 +1794,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,7 +1861,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,19 +1963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,25 +1981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,7 +1999,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,109 +2035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,6 +2055,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2052,17 +2079,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2078,15 +2108,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2117,26 +2138,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2146,10 +2158,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2158,133 +2170,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2903,8 +2915,8 @@
   <sheetPr/>
   <dimension ref="C3:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3990,7 +4002,7 @@
   <dimension ref="C4:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4077,7 +4089,7 @@
       <c r="C16" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4105,149 +4117,161 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:7">
       <c r="C20" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
+      <c r="G20" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
       <c r="C21" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
+        <v>236</v>
+      </c>
+      <c r="G21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
+        <v>238</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
       <c r="C23" t="s">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="G23" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="24" ht="19.5" spans="3:3">
       <c r="C24" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" ht="19.5" spans="3:3">
       <c r="C25" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" ht="19.5" spans="3:3">
       <c r="C26" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" ht="19.5" spans="3:3">
       <c r="C27" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" ht="19.5" spans="3:3">
       <c r="C28" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" ht="19.5" spans="3:3">
       <c r="C29" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" ht="19.5" spans="3:3">
       <c r="C30" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" ht="19.5" spans="3:3">
       <c r="C31" s="4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" ht="19.5" spans="3:3">
       <c r="C32" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" ht="19.5" spans="3:3">
       <c r="C33" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" ht="19.5" spans="3:3">
       <c r="C34" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" ht="19.5" spans="3:3">
       <c r="C35" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" ht="19.5" spans="3:3">
       <c r="C36" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" ht="19.5" spans="3:3">
       <c r="C37" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" ht="27" spans="3:3">
       <c r="C43" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="3:3">
       <c r="C44" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" ht="54" spans="3:3">
       <c r="C46" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="267">
   <si>
     <t>原文地址：https://testerhome.com/topics/2572</t>
   </si>
@@ -1254,7 +1254,7 @@
     <t>七、对类进行分组</t>
   </si>
   <si>
-    <t>File--Setting-KeyMap-Basic点击Add keyboard Shortcut</t>
+    <t>File--Setting-KeyMap-Main menu-Code-Completion-Basic点击Add keyboard Shortcut</t>
   </si>
   <si>
     <t>@Test定义在类上 @Test(groups = "teacher")</t>
@@ -1589,9 +1589,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1658,14 +1658,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1680,10 +1746,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1692,89 +1758,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1794,8 +1777,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1861,7 +1861,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,19 +1957,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,31 +1993,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,115 +2041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,21 +2055,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2079,20 +2064,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2114,11 +2096,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2138,17 +2133,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2158,10 +2158,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2170,34 +2170,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2206,97 +2209,94 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4002,7 +4002,7 @@
   <dimension ref="C4:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
